--- a/biology/Zoologie/Bruant_striolé/Bruant_striolé.xlsx
+++ b/biology/Zoologie/Bruant_striolé/Bruant_striolé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruant_striol%C3%A9</t>
+          <t>Bruant_striolé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emberiza striolata
 Le Bruant striolé (Emberiza striolata) est une espèce de passereaux appartenant à la famille des Emberizidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruant_striol%C3%A9</t>
+          <t>Bruant_striolé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tête, cou et poitrine gris, parties inférieures roussâtres, ailes roux vif et absence de blanc aux rectrices externes, ce qui distingue aisément Emberiza striolata des autres bruants. La race occidentale présente les parotiques mouchetées de noirâtre. La race orientale est un peu plus pâle avec des stries sombres plus marquées sur le manteau et une teinte nettement plus claire sur les parties inférieures, les mâles ont des motifs plus marqués sur la tête, avec un contraste plus évident entre les zones claires et les zones sombres. La femelle est peu différente mais globalement plus terne, avec la tête et la poitrine d'un gris plus brun, la face porte des motifs moins évidents que ceux du mâle et la poitrine est recouverte de fines stries. Les juvéniles ressemblent à la femelle adulte, peu ou pas de stries sombres à la tête, au cou et à la poitrine, bec gris-corne uniforme et sans jaune à la mandibule inférieure. Le chant est une brève série de notes montantes et descendantes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruant_striol%C3%A9</t>
+          <t>Bruant_striolé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-Cette espèce se rencontre de l'Inde au Tchad. 
-Habitat
-Au Moyen-Orient, c'est plutôt un oiseau des oueds arides.
-Reproduction
-Elle s'étale du mois de mars à juin au Proche-Orient, de mars à avril dans la péninsule Arabique. Le nid est installé à l'intérieur ou sur le toit des habitations, mais selon les secteurs, le bruant striolé évite au contraire la présence humaine. Le nid de petite taille, composé de brindilles, de racines, de tiges herbeuses et de paille, est garni de crins, de laine, de duvet végétal et autres matériaux. La ponte comprend 2 à 4 œufs lisses et légèrement brillants, blancs avec quelques nuances de bleu ou de vert, et des taches ou des pointillés violets à brun sombre. L'incubation de 13 ou 14 jours est assurée par la femelle seule.
-Alimentation
-Le bruant striolé est essentiellement végétarien (graines, herbes) mais avale également des invertébrés pendant la saison de reproduction.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de l'Inde au Tchad. 
 </t>
         </is>
       </c>
@@ -563,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruant_striol%C3%A9</t>
+          <t>Bruant_striolé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,16 +591,198 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen-Orient, c'est plutôt un oiseau des oueds arides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bruant_striolé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_striol%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle s'étale du mois de mars à juin au Proche-Orient, de mars à avril dans la péninsule Arabique. Le nid est installé à l'intérieur ou sur le toit des habitations, mais selon les secteurs, le bruant striolé évite au contraire la présence humaine. Le nid de petite taille, composé de brindilles, de racines, de tiges herbeuses et de paille, est garni de crins, de laine, de duvet végétal et autres matériaux. La ponte comprend 2 à 4 œufs lisses et légèrement brillants, blancs avec quelques nuances de bleu ou de vert, et des taches ou des pointillés violets à brun sombre. L'incubation de 13 ou 14 jours est assurée par la femelle seule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruant_striolé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_striol%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bruant striolé est essentiellement végétarien (graines, herbes) mais avale également des invertébrés pendant la saison de reproduction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bruant_striolé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_striol%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Emberiza striolata a été décrite par le naturaliste allemand Martin Lichtenstein en 1822,sous le nom initial de Fringilla striolata.
-Synonymie
-Fringilla striolata Lichtenstein, 1822 Protonyme
-Taxinomie
-Liste des sous-espèces
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Emberiza striolata a été décrite par le naturaliste allemand Martin Lichtenstein en 1822,sous le nom initial de Fringilla striolata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bruant_striolé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_striol%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fringilla striolata Lichtenstein, 1822 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bruant_striolé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_striol%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Cet oiseau est représenté par 4 sous-espèces :
  Emberiza striolata jebelmarrae (Lynes, 1920) ;
  Emberiza striolata sanghae Traylor, 1960) ;
